--- a/sdet-14/Data/testdata.xlsx
+++ b/sdet-14/Data/testdata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18520" windowHeight="5860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="5860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
+    <sheet name="po" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:N18"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>TC_ID</t>
   </si>
@@ -78,6 +79,51 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>CreatePurchaseOrder</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>venderName</t>
+  </si>
+  <si>
+    <t>SearchValue</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>BillingAddress</t>
+  </si>
+  <si>
+    <t>ShippingAddress</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>pendrive</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>testyantra</t>
+  </si>
+  <si>
+    <t>TestYantra</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -134,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +188,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,4 +617,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sdet-14/Data/testdata.xlsx
+++ b/sdet-14/Data/testdata.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supri\git\SDET_14\SDET_14\sdet-14\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="5860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
-    <sheet name="contact" sheetId="2" r:id="rId2"/>
-    <sheet name="po" sheetId="3" r:id="rId3"/>
+    <sheet name="Product" sheetId="5" r:id="rId2"/>
+    <sheet name="contact" sheetId="2" r:id="rId3"/>
+    <sheet name="po" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>TC_ID</t>
   </si>
@@ -124,16 +129,231 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>TEST ID</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TC-25</t>
+  </si>
+  <si>
+    <t>TC-24</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>create product</t>
+  </si>
+  <si>
+    <t>Create product</t>
+  </si>
+  <si>
+    <t>Edit product</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Product name1</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Dozen</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>8GB RAM,512GB RAM</t>
+  </si>
+  <si>
+    <t>Product name2</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>Quantity in stock</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>VAT%</t>
+  </si>
+  <si>
+    <t>4.500</t>
+  </si>
+  <si>
+    <t>sale start date</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>Quantity in Use</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Sales%</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Rorder level</t>
+  </si>
+  <si>
+    <t>13444</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>LexPon Inc.</t>
+  </si>
+  <si>
+    <t>Team selling</t>
+  </si>
+  <si>
+    <t>Team Selling</t>
+  </si>
+  <si>
+    <t>12354</t>
+  </si>
+  <si>
+    <t>Product catogery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hardware</t>
+  </si>
+  <si>
+    <t>Quantity in demand</t>
+  </si>
+  <si>
+    <t>Support Group</t>
+  </si>
+  <si>
+    <t>Sale end date</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Support start date</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>Support end date</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>Vendor number</t>
+  </si>
+  <si>
+    <t>Vaendor Name</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/</t>
+  </si>
+  <si>
+    <t>Product Sheet</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>manf part num</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>GL Acc</t>
+  </si>
+  <si>
+    <t>301-Sales-Hardware</t>
+  </si>
+  <si>
+    <t>Search by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,10 +397,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,8 +411,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,20 +694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,7 +719,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -507,8 +731,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -536,8 +759,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,20 +766,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -583,10 +1136,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -619,26 +1172,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
